--- a/excel/PCLRWords.xlsx
+++ b/excel/PCLRWords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PsychopathyFuzzyThesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109BD1BD-3624-4335-8638-462220B2683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4C49DA-6D01-4BF3-B55C-B1076EF07D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Glib</t>
   </si>
   <si>
-    <t xml:space="preserve">Importance </t>
-  </si>
-  <si>
     <t xml:space="preserve">Grandiosity </t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>Very Emotionally Controlled</t>
+  </si>
+  <si>
+    <t>Weights</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,10 +871,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -894,13 +894,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -909,13 +909,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -924,13 +924,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -939,13 +939,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -954,13 +954,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -969,13 +969,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -984,13 +984,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -999,13 +999,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1119,46 +1119,46 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1373,519 +1373,519 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
         <v>139</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>140</v>
       </c>
-      <c r="D5" t="s">
-        <v>141</v>
-      </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>62</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
         <v>142</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>143</v>
-      </c>
-      <c r="H11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>82</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>83</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>88</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>92</v>
       </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
         <v>94</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
         <v>96</v>
       </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>98</v>
-      </c>
-      <c r="H15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>101</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
         <v>102</v>
       </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>103</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>104</v>
-      </c>
-      <c r="H16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
         <v>106</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>107</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>108</v>
       </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>109</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>110</v>
-      </c>
-      <c r="H17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>113</v>
       </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
         <v>145</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>146</v>
-      </c>
-      <c r="H18" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
         <v>115</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>116</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>117</v>
       </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>118</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>119</v>
-      </c>
-      <c r="H19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
         <v>121</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>122</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
         <v>123</v>
       </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>124</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>125</v>
-      </c>
-      <c r="H20" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>128</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
         <v>129</v>
       </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>130</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>131</v>
-      </c>
-      <c r="H21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
         <v>133</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>134</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
         <v>135</v>
       </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>136</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>137</v>
-      </c>
-      <c r="H22" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">

--- a/excel/PCLRWords.xlsx
+++ b/excel/PCLRWords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PsychopathyFuzzyThesis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4C49DA-6D01-4BF3-B55C-B1076EF07D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC3BF4-122B-47F6-81B0-B1E55280C22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -851,22 +851,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.41796875" customWidth="1"/>
+    <col min="2" max="2" width="26.26171875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83984375" customWidth="1"/>
+    <col min="6" max="6" width="19.68359375" customWidth="1"/>
+    <col min="7" max="7" width="22.26171875" customWidth="1"/>
+    <col min="8" max="8" width="17.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,7 +877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -982,7 +982,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
@@ -1161,45 +1161,45 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="5"/>
       <c r="F24" s="1"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="5"/>
       <c r="F25" s="1"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="5"/>
       <c r="F26" s="1"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="5"/>
       <c r="F27" s="1"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="5"/>
       <c r="F28" s="1"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1347,28 +1347,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.68359375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.15625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="2" t="s">
         <v>5</v>
       </c>
@@ -1918,7 +1918,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
